--- a/data/save_data/2022/ragans_cole.xlsx
+++ b/data/save_data/2022/ragans_cole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>IP</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -497,6 +507,12 @@
       <c r="H2" t="n">
         <v>5</v>
       </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -523,6 +539,12 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -553,6 +575,12 @@
       <c r="H4" t="n">
         <v>5</v>
       </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -581,6 +609,12 @@
       <c r="H5" t="n">
         <v>5</v>
       </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -609,6 +643,12 @@
       <c r="H6" t="n">
         <v>3</v>
       </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,6 +675,12 @@
         <v>16</v>
       </c>
       <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -665,6 +711,12 @@
       <c r="H8" t="n">
         <v>5</v>
       </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,6 +745,12 @@
       <c r="H9" t="n">
         <v>5</v>
       </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -721,6 +779,12 @@
       <c r="H10" t="n">
         <v>5</v>
       </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -748,6 +812,12 @@
       </c>
       <c r="H11" t="n">
         <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/save_data/2022/ragans_cole.xlsx
+++ b/data/save_data/2022/ragans_cole.xlsx
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="n">
         <v>11</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G3" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4" t="n">
         <v>26</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G5" t="n">
         <v>23</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7" t="n">
         <v>16</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G8" t="n">
         <v>24</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G9" t="n">
         <v>16</v>
@@ -805,7 +805,7 @@
         <v>-1</v>
       </c>
       <c r="F11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>17</v>

--- a/data/save_data/2022/ragans_cole.xlsx
+++ b/data/save_data/2022/ragans_cole.xlsx
@@ -502,7 +502,7 @@
         <v>-1</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -536,7 +536,7 @@
         <v>-3</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -570,7 +570,7 @@
         <v>-1</v>
       </c>
       <c r="G4" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         <v>-4</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -672,7 +672,7 @@
         <v>-1</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -706,7 +706,7 @@
         <v>-2</v>
       </c>
       <c r="G8" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -740,7 +740,7 @@
         <v>-3</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>

--- a/data/save_data/2022/ragans_cole.xlsx
+++ b/data/save_data/2022/ragans_cole.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="n">
         <v>-1</v>
@@ -530,7 +530,7 @@
         <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="n">
         <v>-3</v>
@@ -564,7 +564,7 @@
         <v>84</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="n">
         <v>-1</v>
@@ -598,7 +598,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="n">
         <v>-4</v>
@@ -632,10 +632,10 @@
         <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -666,7 +666,7 @@
         <v>89</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7" t="n">
         <v>-1</v>
@@ -700,7 +700,7 @@
         <v>83</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F8" t="n">
         <v>-2</v>
@@ -734,7 +734,7 @@
         <v>88</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F9" t="n">
         <v>-3</v>
@@ -802,10 +802,10 @@
         <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
